--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269230</v>
+        <v>111269225</v>
       </c>
       <c r="B4" t="n">
-        <v>96266</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +926,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223591</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478212.2799582495</v>
+        <v>478063.5316544054</v>
       </c>
       <c r="R4" t="n">
-        <v>7035272.433911666</v>
+        <v>7035405.457506971</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111269196</v>
+        <v>111269190</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,37 +1054,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>478738.1584179544</v>
+        <v>478435.3217485328</v>
       </c>
       <c r="R5" t="n">
-        <v>7034235.480372666</v>
+        <v>7034858.312157811</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,24 +1132,8 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1165,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111269160</v>
+        <v>111269193</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1177,38 +1166,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>478945.8964116597</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R6" t="n">
-        <v>7034470.892458806</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1259,8 +1251,24 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1397,10 +1405,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269211</v>
+        <v>111269194</v>
       </c>
       <c r="B8" t="n">
-        <v>95674</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,38 +1417,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222741</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478205.1017132453</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R8" t="n">
-        <v>7035271.140414268</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,8 +1502,24 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1513,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111269222</v>
+        <v>111269223</v>
       </c>
       <c r="B9" t="n">
-        <v>96370</v>
+        <v>96350</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1529,21 +1556,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219847</v>
+        <v>219811</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1629,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111269194</v>
+        <v>111269226</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>95674</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,41 +1668,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>222741</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>478072.5114144505</v>
+        <v>477865.6022531585</v>
       </c>
       <c r="R10" t="n">
-        <v>7035473.410242592</v>
+        <v>7035551.79909836</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,24 +1750,8 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1764,10 +1772,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269238</v>
+        <v>111269195</v>
       </c>
       <c r="B11" t="n">
-        <v>96370</v>
+        <v>78536</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1780,34 +1788,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219847</v>
+        <v>229497</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478185.9294961051</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R11" t="n">
-        <v>7035285.143307225</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1858,8 +1869,24 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1880,10 +1907,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111269210</v>
+        <v>111269235</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>96370</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1896,21 +1923,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>219847</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1920,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>478331.2119967352</v>
+        <v>478916.9064283832</v>
       </c>
       <c r="R12" t="n">
-        <v>7035102.023397501</v>
+        <v>7034492.568134896</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1996,10 +2023,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269180</v>
+        <v>111269222</v>
       </c>
       <c r="B13" t="n">
-        <v>96674</v>
+        <v>96370</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,21 +2039,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219880</v>
+        <v>219847</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2036,10 +2063,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478840.8911244124</v>
+        <v>478905.3504414497</v>
       </c>
       <c r="R13" t="n">
-        <v>7034248.675100373</v>
+        <v>7034439.380320764</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2112,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111269182</v>
+        <v>111269199</v>
       </c>
       <c r="B14" t="n">
-        <v>96674</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2124,25 +2151,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219880</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2152,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478899.1546511155</v>
+        <v>478232.9764472881</v>
       </c>
       <c r="R14" t="n">
-        <v>7034383.470614045</v>
+        <v>7035284.822420777</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2228,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269221</v>
+        <v>111269168</v>
       </c>
       <c r="B15" t="n">
-        <v>96370</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,25 +2267,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219847</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2268,10 +2295,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478212.2799582495</v>
+        <v>478521.2052101301</v>
       </c>
       <c r="R15" t="n">
-        <v>7035272.433911666</v>
+        <v>7034167.547576698</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2344,10 +2371,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111269199</v>
+        <v>111269209</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2356,25 +2383,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2384,10 +2411,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478232.9764472881</v>
+        <v>478901.5660567298</v>
       </c>
       <c r="R16" t="n">
-        <v>7035284.822420777</v>
+        <v>7034341.379193312</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2460,10 +2487,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111269170</v>
+        <v>111269220</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2472,20 +2499,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2500,10 +2527,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477980.0725120436</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R17" t="n">
-        <v>7035518.344150023</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2576,10 +2603,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111269193</v>
+        <v>111269169</v>
       </c>
       <c r="B18" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2588,41 +2615,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478072.5114144505</v>
+        <v>478643.2272602025</v>
       </c>
       <c r="R18" t="n">
-        <v>7035473.410242592</v>
+        <v>7034719.069556867</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2673,24 +2697,8 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2711,10 +2719,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111269162</v>
+        <v>111269197</v>
       </c>
       <c r="B19" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2723,38 +2731,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478192.7176835258</v>
+        <v>478436.6498698907</v>
       </c>
       <c r="R19" t="n">
-        <v>7035294.941605572</v>
+        <v>7034922.301266134</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2805,8 +2816,24 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2827,10 +2854,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111269172</v>
+        <v>111269171</v>
       </c>
       <c r="B20" t="n">
-        <v>96674</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2843,21 +2870,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219880</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2943,10 +2970,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111269175</v>
+        <v>111269217</v>
       </c>
       <c r="B21" t="n">
-        <v>101703</v>
+        <v>96370</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2959,21 +2986,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222412</v>
+        <v>219847</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2983,10 +3010,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478482.1254467559</v>
+        <v>478296.0589666626</v>
       </c>
       <c r="R21" t="n">
-        <v>7034155.276495157</v>
+        <v>7035138.510074378</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3059,10 +3086,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111269197</v>
+        <v>111269170</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3075,37 +3102,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478436.6498698907</v>
+        <v>477980.0725120436</v>
       </c>
       <c r="R22" t="n">
-        <v>7034922.301266134</v>
+        <v>7035518.344150023</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3156,24 +3180,8 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3194,10 +3202,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111269174</v>
+        <v>111269211</v>
       </c>
       <c r="B23" t="n">
-        <v>85062</v>
+        <v>95674</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3206,25 +3214,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>249278</v>
+        <v>222741</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3234,10 +3242,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478440.5561046514</v>
+        <v>478205.1017132453</v>
       </c>
       <c r="R23" t="n">
-        <v>7034903.478403827</v>
+        <v>7035271.140414268</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3310,10 +3318,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111269171</v>
+        <v>111269159</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3322,25 +3330,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3350,10 +3358,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477872.0964411914</v>
+        <v>478107.4742202407</v>
       </c>
       <c r="R24" t="n">
-        <v>7035519.09025224</v>
+        <v>7035410.078216657</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3426,10 +3434,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111269218</v>
+        <v>111269200</v>
       </c>
       <c r="B25" t="n">
-        <v>78538</v>
+        <v>78605</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3438,25 +3446,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>515</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3466,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478131.5555229208</v>
+        <v>478062.6355557253</v>
       </c>
       <c r="R25" t="n">
-        <v>7035393.356959587</v>
+        <v>7035405.463660207</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3542,10 +3550,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111269214</v>
+        <v>111269212</v>
       </c>
       <c r="B26" t="n">
-        <v>90332</v>
+        <v>96674</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3558,21 +3566,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>219880</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3582,10 +3590,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477911.8549794651</v>
+        <v>478902.9047426366</v>
       </c>
       <c r="R26" t="n">
-        <v>7035631.571096683</v>
+        <v>7034340.475126858</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3658,10 +3666,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111269216</v>
+        <v>111269230</v>
       </c>
       <c r="B27" t="n">
-        <v>95674</v>
+        <v>96266</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3674,21 +3682,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222741</v>
+        <v>223591</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3698,10 +3706,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>478665.7570384996</v>
+        <v>478212.2799582495</v>
       </c>
       <c r="R27" t="n">
-        <v>7034737.269069254</v>
+        <v>7035272.433911666</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3774,10 +3782,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111269200</v>
+        <v>111269218</v>
       </c>
       <c r="B28" t="n">
-        <v>78605</v>
+        <v>78538</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3786,25 +3794,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>515</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3814,10 +3822,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478062.6355557253</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R28" t="n">
-        <v>7035405.463660207</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3890,10 +3898,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111269226</v>
+        <v>111269208</v>
       </c>
       <c r="B29" t="n">
-        <v>95674</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3902,25 +3910,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222741</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3930,10 +3938,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477865.6022531585</v>
+        <v>477862.617980854</v>
       </c>
       <c r="R29" t="n">
-        <v>7035551.79909836</v>
+        <v>7035573.744644682</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4006,10 +4014,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111269201</v>
+        <v>111269238</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>96370</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4022,21 +4030,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>219847</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4046,10 +4054,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>478804.9928740829</v>
+        <v>478185.9294961051</v>
       </c>
       <c r="R30" t="n">
-        <v>7034648.172051027</v>
+        <v>7035285.143307225</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4122,10 +4130,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111269209</v>
+        <v>111269229</v>
       </c>
       <c r="B31" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4134,38 +4142,50 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478901.5660567298</v>
+        <v>478817.998279659</v>
       </c>
       <c r="R31" t="n">
-        <v>7034341.379193312</v>
+        <v>7034649.428534828</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4216,6 +4236,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4238,7 +4259,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111269217</v>
+        <v>111269167</v>
       </c>
       <c r="B32" t="n">
         <v>96370</v>
@@ -4278,10 +4299,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478296.0589666626</v>
+        <v>478371.4433282</v>
       </c>
       <c r="R32" t="n">
-        <v>7035138.510074378</v>
+        <v>7035087.430465378</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4354,10 +4375,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111269169</v>
+        <v>111269236</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4366,25 +4387,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4394,10 +4415,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478643.2272602025</v>
+        <v>478464.4348576546</v>
       </c>
       <c r="R33" t="n">
-        <v>7034719.069556867</v>
+        <v>7034855.87809607</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4470,7 +4491,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111269198</v>
+        <v>111269182</v>
       </c>
       <c r="B34" t="n">
         <v>96674</v>
@@ -4510,10 +4531,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478924.4925105923</v>
+        <v>478899.1546511155</v>
       </c>
       <c r="R34" t="n">
-        <v>7034419.559528337</v>
+        <v>7034383.470614045</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4586,10 +4607,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111269195</v>
+        <v>111269201</v>
       </c>
       <c r="B35" t="n">
-        <v>78536</v>
+        <v>98535</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4602,37 +4623,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>229497</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478738.1584179544</v>
+        <v>478804.9928740829</v>
       </c>
       <c r="R35" t="n">
-        <v>7034235.480372666</v>
+        <v>7034648.172051027</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4683,24 +4701,8 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4721,10 +4723,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111269167</v>
+        <v>111269198</v>
       </c>
       <c r="B36" t="n">
-        <v>96370</v>
+        <v>96674</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4737,21 +4739,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219847</v>
+        <v>219880</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4761,10 +4763,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478371.4433282</v>
+        <v>478924.4925105923</v>
       </c>
       <c r="R36" t="n">
-        <v>7035087.430465378</v>
+        <v>7034419.559528337</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4837,10 +4839,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111269208</v>
+        <v>111269160</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4853,21 +4855,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4877,10 +4879,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477862.617980854</v>
+        <v>478945.8964116597</v>
       </c>
       <c r="R37" t="n">
-        <v>7035573.744644682</v>
+        <v>7034470.892458806</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4953,10 +4955,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111269223</v>
+        <v>111269162</v>
       </c>
       <c r="B38" t="n">
-        <v>96350</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4969,21 +4971,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219811</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4993,10 +4995,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478905.3504414497</v>
+        <v>478192.7176835258</v>
       </c>
       <c r="R38" t="n">
-        <v>7034439.380320764</v>
+        <v>7035294.941605572</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5069,10 +5071,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111269220</v>
+        <v>111269180</v>
       </c>
       <c r="B39" t="n">
-        <v>78611</v>
+        <v>96674</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5085,21 +5087,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6463</v>
+        <v>219880</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5109,10 +5111,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>478131.5555229208</v>
+        <v>478840.8911244124</v>
       </c>
       <c r="R39" t="n">
-        <v>7035393.356959587</v>
+        <v>7034248.675100373</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5185,10 +5187,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111269225</v>
+        <v>111269172</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>96674</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5197,46 +5199,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>219880</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>478063.5316544054</v>
+        <v>477872.0964411914</v>
       </c>
       <c r="R40" t="n">
-        <v>7035405.457506971</v>
+        <v>7035519.09025224</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5309,10 +5303,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111269159</v>
+        <v>111269203</v>
       </c>
       <c r="B41" t="n">
-        <v>94134</v>
+        <v>78579</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5325,21 +5319,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53</v>
+        <v>2081</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5349,10 +5343,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478107.4742202407</v>
+        <v>478058.6092578957</v>
       </c>
       <c r="R41" t="n">
-        <v>7035410.078216657</v>
+        <v>7035406.38624617</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5425,10 +5419,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111269166</v>
+        <v>111269228</v>
       </c>
       <c r="B42" t="n">
-        <v>78605</v>
+        <v>96350</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5441,21 +5435,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6462</v>
+        <v>219811</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5465,10 +5459,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478039.1852579239</v>
+        <v>478666.6296004157</v>
       </c>
       <c r="R42" t="n">
-        <v>7035513.910161891</v>
+        <v>7034196.565337145</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5511,11 +5505,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5546,10 +5535,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111269168</v>
+        <v>111269214</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5558,25 +5547,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5586,10 +5575,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478521.2052101301</v>
+        <v>477911.8549794651</v>
       </c>
       <c r="R43" t="n">
-        <v>7034167.547576698</v>
+        <v>7035631.571096683</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5662,10 +5651,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111269228</v>
+        <v>111269166</v>
       </c>
       <c r="B44" t="n">
-        <v>96350</v>
+        <v>78605</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5678,21 +5667,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219811</v>
+        <v>6462</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5702,10 +5691,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478666.6296004157</v>
+        <v>478039.1852579239</v>
       </c>
       <c r="R44" t="n">
-        <v>7034196.565337145</v>
+        <v>7035513.910161891</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5748,6 +5737,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5778,10 +5772,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111269190</v>
+        <v>111269210</v>
       </c>
       <c r="B45" t="n">
-        <v>78107</v>
+        <v>96368</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5790,25 +5784,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6453</v>
+        <v>221952</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5818,10 +5812,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478435.3217485328</v>
+        <v>478331.2119967352</v>
       </c>
       <c r="R45" t="n">
-        <v>7034858.312157811</v>
+        <v>7035102.023397501</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5894,10 +5888,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111269203</v>
+        <v>111269175</v>
       </c>
       <c r="B46" t="n">
-        <v>78579</v>
+        <v>101703</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5906,25 +5900,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2081</v>
+        <v>222412</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5934,10 +5928,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478058.6092578957</v>
+        <v>478482.1254467559</v>
       </c>
       <c r="R46" t="n">
-        <v>7035406.38624617</v>
+        <v>7034155.276495157</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6010,10 +6004,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111269236</v>
+        <v>111269174</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>85062</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6022,25 +6016,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>249278</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6050,10 +6044,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478464.4348576546</v>
+        <v>478440.5561046514</v>
       </c>
       <c r="R47" t="n">
-        <v>7034855.87809607</v>
+        <v>7034903.478403827</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6126,10 +6120,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111269235</v>
+        <v>111269196</v>
       </c>
       <c r="B48" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6138,38 +6132,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478916.9064283832</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R48" t="n">
-        <v>7034492.568134896</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6220,8 +6217,24 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6242,10 +6255,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111269212</v>
+        <v>111269216</v>
       </c>
       <c r="B49" t="n">
-        <v>96674</v>
+        <v>95674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6258,21 +6271,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>219880</v>
+        <v>222741</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6282,10 +6295,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478902.9047426366</v>
+        <v>478665.7570384996</v>
       </c>
       <c r="R49" t="n">
-        <v>7034340.475126858</v>
+        <v>7034737.269069254</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6358,10 +6371,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111269229</v>
+        <v>111269221</v>
       </c>
       <c r="B50" t="n">
-        <v>96348</v>
+        <v>96370</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6370,50 +6383,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>220787</v>
+        <v>219847</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+          <t>(L.) Buff. &amp; Fingerh.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478817.998279659</v>
+        <v>478212.2799582495</v>
       </c>
       <c r="R50" t="n">
-        <v>7034649.428534828</v>
+        <v>7035272.433911666</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6464,7 +6465,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269225</v>
+        <v>111269188</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,46 +926,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478063.5316544054</v>
+        <v>478124.8470129518</v>
       </c>
       <c r="R4" t="n">
-        <v>7035405.457506971</v>
+        <v>7035395.192764859</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111269190</v>
+        <v>111269197</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,34 +1046,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>478435.3217485328</v>
+        <v>478436.6498698907</v>
       </c>
       <c r="R5" t="n">
-        <v>7034858.312157811</v>
+        <v>7034922.301266134</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,8 +1127,24 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1154,10 +1165,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111269193</v>
+        <v>111269170</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,41 +1177,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>478072.5114144505</v>
+        <v>477980.0725120436</v>
       </c>
       <c r="R6" t="n">
-        <v>7035473.410242592</v>
+        <v>7035518.344150023</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,24 +1259,8 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1289,10 +1281,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111269188</v>
+        <v>111269194</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,38 +1293,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>478124.8470129518</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R7" t="n">
-        <v>7035395.192764859</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1383,8 +1378,24 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1405,10 +1416,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269194</v>
+        <v>111269182</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1417,41 +1428,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478072.5114144505</v>
+        <v>478899.1546511155</v>
       </c>
       <c r="R8" t="n">
-        <v>7035473.410242592</v>
+        <v>7034383.470614045</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1502,24 +1510,8 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1540,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111269223</v>
+        <v>111269200</v>
       </c>
       <c r="B9" t="n">
-        <v>96350</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,21 +1548,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219811</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1580,10 +1572,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>478905.3504414497</v>
+        <v>478062.6355557253</v>
       </c>
       <c r="R9" t="n">
-        <v>7034439.380320764</v>
+        <v>7035405.463660207</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1656,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111269226</v>
+        <v>111269214</v>
       </c>
       <c r="B10" t="n">
-        <v>95674</v>
+        <v>90332</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1664,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222741</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1688,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477865.6022531585</v>
+        <v>477911.8549794651</v>
       </c>
       <c r="R10" t="n">
-        <v>7035551.79909836</v>
+        <v>7035631.571096683</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1772,10 +1764,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269195</v>
+        <v>111269166</v>
       </c>
       <c r="B11" t="n">
-        <v>78536</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,37 +1780,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229497</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478738.1584179544</v>
+        <v>478039.1852579239</v>
       </c>
       <c r="R11" t="n">
-        <v>7034235.480372666</v>
+        <v>7035513.910161891</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1863,30 +1852,19 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På sälg</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1907,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111269235</v>
+        <v>111269169</v>
       </c>
       <c r="B12" t="n">
-        <v>96370</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1919,25 +1897,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219847</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1947,10 +1925,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>478916.9064283832</v>
+        <v>478643.2272602025</v>
       </c>
       <c r="R12" t="n">
-        <v>7034492.568134896</v>
+        <v>7034719.069556867</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2023,10 +2001,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269222</v>
+        <v>111269236</v>
       </c>
       <c r="B13" t="n">
-        <v>96370</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2039,21 +2017,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219847</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2063,10 +2041,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478905.3504414497</v>
+        <v>478464.4348576546</v>
       </c>
       <c r="R13" t="n">
-        <v>7034439.380320764</v>
+        <v>7034855.87809607</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2139,10 +2117,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111269199</v>
+        <v>111269235</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>96370</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2151,25 +2129,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>219847</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2179,10 +2157,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478232.9764472881</v>
+        <v>478916.9064283832</v>
       </c>
       <c r="R14" t="n">
-        <v>7035284.822420777</v>
+        <v>7034492.568134896</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2255,10 +2233,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269168</v>
+        <v>111269216</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>95674</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,25 +2245,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>222741</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2295,10 +2273,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478521.2052101301</v>
+        <v>478665.7570384996</v>
       </c>
       <c r="R15" t="n">
-        <v>7034167.547576698</v>
+        <v>7034737.269069254</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2371,10 +2349,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111269209</v>
+        <v>111269230</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>96266</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2387,21 +2365,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>223591</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2411,10 +2389,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478901.5660567298</v>
+        <v>478212.2799582495</v>
       </c>
       <c r="R16" t="n">
-        <v>7034341.379193312</v>
+        <v>7035272.433911666</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2487,10 +2465,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111269220</v>
+        <v>111269211</v>
       </c>
       <c r="B17" t="n">
-        <v>78611</v>
+        <v>95674</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2503,21 +2481,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>222741</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2527,10 +2505,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>478131.5555229208</v>
+        <v>478205.1017132453</v>
       </c>
       <c r="R17" t="n">
-        <v>7035393.356959587</v>
+        <v>7035271.140414268</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2603,10 +2581,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111269169</v>
+        <v>111269167</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2615,25 +2593,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>219847</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2643,10 +2621,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478643.2272602025</v>
+        <v>478371.4433282</v>
       </c>
       <c r="R18" t="n">
-        <v>7034719.069556867</v>
+        <v>7035087.430465378</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2719,10 +2697,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111269197</v>
+        <v>111269218</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>78538</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2731,41 +2709,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>515</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478436.6498698907</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R19" t="n">
-        <v>7034922.301266134</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2816,24 +2791,8 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2854,10 +2813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111269171</v>
+        <v>111269238</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>96370</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2870,21 +2829,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>219847</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2894,10 +2853,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477872.0964411914</v>
+        <v>478185.9294961051</v>
       </c>
       <c r="R20" t="n">
-        <v>7035519.09025224</v>
+        <v>7035285.143307225</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2970,10 +2929,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111269217</v>
+        <v>111269225</v>
       </c>
       <c r="B21" t="n">
-        <v>96370</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2982,38 +2941,46 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>219847</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478296.0589666626</v>
+        <v>478063.5316544054</v>
       </c>
       <c r="R21" t="n">
-        <v>7035138.510074378</v>
+        <v>7035405.457506971</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3086,10 +3053,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111269170</v>
+        <v>111269193</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3098,38 +3065,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477980.0725120436</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R22" t="n">
-        <v>7035518.344150023</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3180,8 +3150,24 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3202,10 +3188,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111269211</v>
+        <v>111269222</v>
       </c>
       <c r="B23" t="n">
-        <v>95674</v>
+        <v>96370</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3218,21 +3204,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222741</v>
+        <v>219847</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3242,10 +3228,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478205.1017132453</v>
+        <v>478905.3504414497</v>
       </c>
       <c r="R23" t="n">
-        <v>7035271.140414268</v>
+        <v>7034439.380320764</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3318,10 +3304,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111269159</v>
+        <v>111269199</v>
       </c>
       <c r="B24" t="n">
-        <v>94134</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3334,21 +3320,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3358,10 +3344,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478107.4742202407</v>
+        <v>478232.9764472881</v>
       </c>
       <c r="R24" t="n">
-        <v>7035410.078216657</v>
+        <v>7035284.822420777</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3434,10 +3420,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111269200</v>
+        <v>111269195</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>78536</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3450,34 +3436,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>229497</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478062.6355557253</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R25" t="n">
-        <v>7035405.463660207</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3528,8 +3517,24 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3550,10 +3555,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111269212</v>
+        <v>111269228</v>
       </c>
       <c r="B26" t="n">
-        <v>96674</v>
+        <v>96350</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3566,21 +3571,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219880</v>
+        <v>219811</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3590,10 +3595,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478902.9047426366</v>
+        <v>478666.6296004157</v>
       </c>
       <c r="R26" t="n">
-        <v>7034340.475126858</v>
+        <v>7034196.565337145</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3666,10 +3671,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111269230</v>
+        <v>111269221</v>
       </c>
       <c r="B27" t="n">
-        <v>96266</v>
+        <v>96370</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3682,21 +3687,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>223591</v>
+        <v>219847</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3782,10 +3787,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111269218</v>
+        <v>111269171</v>
       </c>
       <c r="B28" t="n">
-        <v>78538</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3794,25 +3799,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>515</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3822,10 +3827,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478131.5555229208</v>
+        <v>477872.0964411914</v>
       </c>
       <c r="R28" t="n">
-        <v>7035393.356959587</v>
+        <v>7035519.09025224</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3898,10 +3903,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111269208</v>
+        <v>111269159</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3914,21 +3919,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3938,10 +3943,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477862.617980854</v>
+        <v>478107.4742202407</v>
       </c>
       <c r="R29" t="n">
-        <v>7035573.744644682</v>
+        <v>7035410.078216657</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4014,10 +4019,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111269238</v>
+        <v>111269220</v>
       </c>
       <c r="B30" t="n">
-        <v>96370</v>
+        <v>78611</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4030,21 +4035,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219847</v>
+        <v>6463</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4054,10 +4059,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>478185.9294961051</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R30" t="n">
-        <v>7035285.143307225</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4259,10 +4264,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111269167</v>
+        <v>111269209</v>
       </c>
       <c r="B32" t="n">
-        <v>96370</v>
+        <v>98535</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4275,21 +4280,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219847</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4299,10 +4304,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478371.4433282</v>
+        <v>478901.5660567298</v>
       </c>
       <c r="R32" t="n">
-        <v>7035087.430465378</v>
+        <v>7034341.379193312</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4375,10 +4380,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111269236</v>
+        <v>111269208</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4387,25 +4392,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4415,10 +4420,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478464.4348576546</v>
+        <v>477862.617980854</v>
       </c>
       <c r="R33" t="n">
-        <v>7034855.87809607</v>
+        <v>7035573.744644682</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4491,10 +4496,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111269182</v>
+        <v>111269162</v>
       </c>
       <c r="B34" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4507,21 +4512,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4531,10 +4536,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478899.1546511155</v>
+        <v>478192.7176835258</v>
       </c>
       <c r="R34" t="n">
-        <v>7034383.470614045</v>
+        <v>7035294.941605572</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4607,10 +4612,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111269201</v>
+        <v>111269203</v>
       </c>
       <c r="B35" t="n">
-        <v>98535</v>
+        <v>78579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4619,25 +4624,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4647,10 +4652,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478804.9928740829</v>
+        <v>478058.6092578957</v>
       </c>
       <c r="R35" t="n">
-        <v>7034648.172051027</v>
+        <v>7035406.38624617</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4723,10 +4728,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111269198</v>
+        <v>111269226</v>
       </c>
       <c r="B36" t="n">
-        <v>96674</v>
+        <v>95674</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4739,21 +4744,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219880</v>
+        <v>222741</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4763,10 +4768,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478924.4925105923</v>
+        <v>477865.6022531585</v>
       </c>
       <c r="R36" t="n">
-        <v>7034419.559528337</v>
+        <v>7035551.79909836</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4839,10 +4844,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111269160</v>
+        <v>111269223</v>
       </c>
       <c r="B37" t="n">
-        <v>89401</v>
+        <v>96350</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4851,25 +4856,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1108</v>
+        <v>219811</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4879,10 +4884,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>478945.8964116597</v>
+        <v>478905.3504414497</v>
       </c>
       <c r="R37" t="n">
-        <v>7034470.892458806</v>
+        <v>7034439.380320764</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4955,10 +4960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111269162</v>
+        <v>111269198</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>96674</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4971,21 +4976,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>219880</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4995,10 +5000,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478192.7176835258</v>
+        <v>478924.4925105923</v>
       </c>
       <c r="R38" t="n">
-        <v>7035294.941605572</v>
+        <v>7034419.559528337</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5071,10 +5076,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111269180</v>
+        <v>111269175</v>
       </c>
       <c r="B39" t="n">
-        <v>96674</v>
+        <v>101703</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5087,21 +5092,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>219880</v>
+        <v>222412</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5111,10 +5116,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>478840.8911244124</v>
+        <v>478482.1254467559</v>
       </c>
       <c r="R39" t="n">
-        <v>7034248.675100373</v>
+        <v>7034155.276495157</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5187,10 +5192,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111269172</v>
+        <v>111269168</v>
       </c>
       <c r="B40" t="n">
-        <v>96674</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5199,25 +5204,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219880</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5227,10 +5232,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477872.0964411914</v>
+        <v>478521.2052101301</v>
       </c>
       <c r="R40" t="n">
-        <v>7035519.09025224</v>
+        <v>7034167.547576698</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5303,10 +5308,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111269203</v>
+        <v>111269174</v>
       </c>
       <c r="B41" t="n">
-        <v>78579</v>
+        <v>85062</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5319,21 +5324,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2081</v>
+        <v>249278</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5343,10 +5348,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478058.6092578957</v>
+        <v>478440.5561046514</v>
       </c>
       <c r="R41" t="n">
-        <v>7035406.38624617</v>
+        <v>7034903.478403827</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5419,10 +5424,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111269228</v>
+        <v>111269190</v>
       </c>
       <c r="B42" t="n">
-        <v>96350</v>
+        <v>78107</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5431,25 +5436,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>219811</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5459,10 +5464,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478666.6296004157</v>
+        <v>478435.3217485328</v>
       </c>
       <c r="R42" t="n">
-        <v>7034196.565337145</v>
+        <v>7034858.312157811</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5535,10 +5540,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111269214</v>
+        <v>111269196</v>
       </c>
       <c r="B43" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5547,38 +5552,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>477911.8549794651</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R43" t="n">
-        <v>7035631.571096683</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5629,8 +5637,24 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5651,10 +5675,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111269166</v>
+        <v>111269160</v>
       </c>
       <c r="B44" t="n">
-        <v>78605</v>
+        <v>89401</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5663,25 +5687,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>1108</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5691,10 +5715,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478039.1852579239</v>
+        <v>478945.8964116597</v>
       </c>
       <c r="R44" t="n">
-        <v>7035513.910161891</v>
+        <v>7034470.892458806</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5737,11 +5761,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5772,10 +5791,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111269210</v>
+        <v>111269201</v>
       </c>
       <c r="B45" t="n">
-        <v>96368</v>
+        <v>98535</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5788,21 +5807,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5812,10 +5831,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478331.2119967352</v>
+        <v>478804.9928740829</v>
       </c>
       <c r="R45" t="n">
-        <v>7035102.023397501</v>
+        <v>7034648.172051027</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5888,10 +5907,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111269175</v>
+        <v>111269172</v>
       </c>
       <c r="B46" t="n">
-        <v>101703</v>
+        <v>96674</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5904,21 +5923,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222412</v>
+        <v>219880</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5928,10 +5947,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478482.1254467559</v>
+        <v>477872.0964411914</v>
       </c>
       <c r="R46" t="n">
-        <v>7034155.276495157</v>
+        <v>7035519.09025224</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6004,10 +6023,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111269174</v>
+        <v>111269212</v>
       </c>
       <c r="B47" t="n">
-        <v>85062</v>
+        <v>96674</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6016,25 +6035,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>249278</v>
+        <v>219880</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6044,10 +6063,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478440.5561046514</v>
+        <v>478902.9047426366</v>
       </c>
       <c r="R47" t="n">
-        <v>7034903.478403827</v>
+        <v>7034340.475126858</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6120,10 +6139,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111269196</v>
+        <v>111269217</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>96370</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6132,41 +6151,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>219847</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478738.1584179544</v>
+        <v>478296.0589666626</v>
       </c>
       <c r="R48" t="n">
-        <v>7034235.480372666</v>
+        <v>7035138.510074378</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6217,24 +6233,8 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6255,10 +6255,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111269216</v>
+        <v>111269210</v>
       </c>
       <c r="B49" t="n">
-        <v>95674</v>
+        <v>96368</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6271,21 +6271,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222741</v>
+        <v>221952</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6295,10 +6295,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478665.7570384996</v>
+        <v>478331.2119967352</v>
       </c>
       <c r="R49" t="n">
-        <v>7034737.269069254</v>
+        <v>7035102.023397501</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6371,10 +6371,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111269221</v>
+        <v>111269180</v>
       </c>
       <c r="B50" t="n">
-        <v>96370</v>
+        <v>96674</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6387,21 +6387,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219847</v>
+        <v>219880</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6411,10 +6411,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478212.2799582495</v>
+        <v>478840.8911244124</v>
       </c>
       <c r="R50" t="n">
-        <v>7035272.433911666</v>
+        <v>7034248.675100373</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269188</v>
+        <v>111269209</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478124.8470129518</v>
+        <v>478901.5660567298</v>
       </c>
       <c r="R4" t="n">
-        <v>7035395.192764859</v>
+        <v>7034341.379193312</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111269197</v>
+        <v>111269167</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>96370</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,41 +1042,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>219847</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>478436.6498698907</v>
+        <v>478371.4433282</v>
       </c>
       <c r="R5" t="n">
-        <v>7034922.301266134</v>
+        <v>7035087.430465378</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,24 +1124,8 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1165,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111269170</v>
+        <v>111269225</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,34 +1162,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477980.0725120436</v>
+        <v>478063.5316544054</v>
       </c>
       <c r="R6" t="n">
-        <v>7035518.344150023</v>
+        <v>7035405.457506971</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1281,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111269194</v>
+        <v>111269169</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1293,41 +1282,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>478072.5114144505</v>
+        <v>478643.2272602025</v>
       </c>
       <c r="R7" t="n">
-        <v>7035473.410242592</v>
+        <v>7034719.069556867</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1378,24 +1364,8 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1416,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269182</v>
+        <v>111269203</v>
       </c>
       <c r="B8" t="n">
-        <v>96674</v>
+        <v>78579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,25 +1398,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219880</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1456,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478899.1546511155</v>
+        <v>478058.6092578957</v>
       </c>
       <c r="R8" t="n">
-        <v>7034383.470614045</v>
+        <v>7035406.38624617</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1532,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111269200</v>
+        <v>111269223</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>96350</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1548,21 +1518,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>219811</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1572,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>478062.6355557253</v>
+        <v>478905.3504414497</v>
       </c>
       <c r="R9" t="n">
-        <v>7035405.463660207</v>
+        <v>7034439.380320764</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1648,10 +1618,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111269214</v>
+        <v>111269196</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,38 +1630,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477911.8549794651</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R10" t="n">
-        <v>7035631.571096683</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1742,8 +1715,24 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1764,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269166</v>
+        <v>111269175</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>101703</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1780,21 +1769,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>222412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1804,10 +1793,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478039.1852579239</v>
+        <v>478482.1254467559</v>
       </c>
       <c r="R11" t="n">
-        <v>7035513.910161891</v>
+        <v>7034155.276495157</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,11 +1839,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1885,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111269169</v>
+        <v>111269218</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78538</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1897,25 +1881,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>515</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1925,10 +1909,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>478643.2272602025</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R12" t="n">
-        <v>7034719.069556867</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2001,10 +1985,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269236</v>
+        <v>111269193</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2017,34 +2001,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478464.4348576546</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R13" t="n">
-        <v>7034855.87809607</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2095,8 +2082,24 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2117,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111269235</v>
+        <v>111269180</v>
       </c>
       <c r="B14" t="n">
-        <v>96370</v>
+        <v>96674</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2133,21 +2136,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219847</v>
+        <v>219880</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2157,10 +2160,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478916.9064283832</v>
+        <v>478840.8911244124</v>
       </c>
       <c r="R14" t="n">
-        <v>7034492.568134896</v>
+        <v>7034248.675100373</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2233,10 +2236,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269216</v>
+        <v>111269166</v>
       </c>
       <c r="B15" t="n">
-        <v>95674</v>
+        <v>78605</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2249,21 +2252,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222741</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2273,10 +2276,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478665.7570384996</v>
+        <v>478039.1852579239</v>
       </c>
       <c r="R15" t="n">
-        <v>7034737.269069254</v>
+        <v>7035513.910161891</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2319,6 +2322,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2349,10 +2357,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111269230</v>
+        <v>111269228</v>
       </c>
       <c r="B16" t="n">
-        <v>96266</v>
+        <v>96350</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2365,21 +2373,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>223591</v>
+        <v>219811</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2389,10 +2397,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478212.2799582495</v>
+        <v>478666.6296004157</v>
       </c>
       <c r="R16" t="n">
-        <v>7035272.433911666</v>
+        <v>7034196.565337145</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2465,10 +2473,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111269211</v>
+        <v>111269195</v>
       </c>
       <c r="B17" t="n">
-        <v>95674</v>
+        <v>78536</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2481,34 +2489,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222741</v>
+        <v>229497</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>478205.1017132453</v>
+        <v>478738.1584179544</v>
       </c>
       <c r="R17" t="n">
-        <v>7035271.140414268</v>
+        <v>7034235.480372666</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2559,8 +2570,24 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2581,7 +2608,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111269167</v>
+        <v>111269222</v>
       </c>
       <c r="B18" t="n">
         <v>96370</v>
@@ -2621,10 +2648,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478371.4433282</v>
+        <v>478905.3504414497</v>
       </c>
       <c r="R18" t="n">
-        <v>7035087.430465378</v>
+        <v>7034439.380320764</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2697,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111269218</v>
+        <v>111269197</v>
       </c>
       <c r="B19" t="n">
-        <v>78538</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2709,38 +2736,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>515</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478131.5555229208</v>
+        <v>478436.6498698907</v>
       </c>
       <c r="R19" t="n">
-        <v>7035393.356959587</v>
+        <v>7034922.301266134</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2791,8 +2821,24 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2813,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111269238</v>
+        <v>111269220</v>
       </c>
       <c r="B20" t="n">
-        <v>96370</v>
+        <v>78611</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,21 +2875,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219847</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2853,10 +2899,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>478185.9294961051</v>
+        <v>478131.5555229208</v>
       </c>
       <c r="R20" t="n">
-        <v>7035285.143307225</v>
+        <v>7035393.356959587</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2929,10 +2975,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111269225</v>
+        <v>111269238</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>96370</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2941,46 +2987,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>219847</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478063.5316544054</v>
+        <v>478185.9294961051</v>
       </c>
       <c r="R21" t="n">
-        <v>7035405.457506971</v>
+        <v>7035285.143307225</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3053,10 +3091,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111269193</v>
+        <v>111269170</v>
       </c>
       <c r="B22" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3065,41 +3103,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478072.5114144505</v>
+        <v>477980.0725120436</v>
       </c>
       <c r="R22" t="n">
-        <v>7035473.410242592</v>
+        <v>7035518.344150023</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3150,24 +3185,8 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3188,7 +3207,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111269222</v>
+        <v>111269217</v>
       </c>
       <c r="B23" t="n">
         <v>96370</v>
@@ -3228,10 +3247,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478905.3504414497</v>
+        <v>478296.0589666626</v>
       </c>
       <c r="R23" t="n">
-        <v>7034439.380320764</v>
+        <v>7035138.510074378</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3304,10 +3323,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111269199</v>
+        <v>111269160</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3320,21 +3339,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3344,10 +3363,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478232.9764472881</v>
+        <v>478945.8964116597</v>
       </c>
       <c r="R24" t="n">
-        <v>7035284.822420777</v>
+        <v>7034470.892458806</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3420,10 +3439,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111269195</v>
+        <v>111269221</v>
       </c>
       <c r="B25" t="n">
-        <v>78536</v>
+        <v>96370</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3436,37 +3455,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229497</v>
+        <v>219847</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478738.1584179544</v>
+        <v>478212.2799582495</v>
       </c>
       <c r="R25" t="n">
-        <v>7034235.480372666</v>
+        <v>7035272.433911666</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3517,24 +3533,8 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3555,10 +3555,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111269228</v>
+        <v>111269229</v>
       </c>
       <c r="B26" t="n">
-        <v>96350</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3567,20 +3567,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219811</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3588,17 +3588,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478666.6296004157</v>
+        <v>478817.998279659</v>
       </c>
       <c r="R26" t="n">
-        <v>7034196.565337145</v>
+        <v>7034649.428534828</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3649,6 +3661,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3671,10 +3684,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111269221</v>
+        <v>111269174</v>
       </c>
       <c r="B27" t="n">
-        <v>96370</v>
+        <v>85062</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3683,25 +3696,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219847</v>
+        <v>249278</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3711,10 +3724,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>478212.2799582495</v>
+        <v>478440.5561046514</v>
       </c>
       <c r="R27" t="n">
-        <v>7035272.433911666</v>
+        <v>7034903.478403827</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3787,7 +3800,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111269171</v>
+        <v>111269201</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -3827,10 +3840,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477872.0964411914</v>
+        <v>478804.9928740829</v>
       </c>
       <c r="R28" t="n">
-        <v>7035519.09025224</v>
+        <v>7034648.172051027</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3903,10 +3916,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111269159</v>
+        <v>111269194</v>
       </c>
       <c r="B29" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3919,34 +3932,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478107.4742202407</v>
+        <v>478072.5114144505</v>
       </c>
       <c r="R29" t="n">
-        <v>7035410.078216657</v>
+        <v>7035473.410242592</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3997,8 +4013,24 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4019,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111269220</v>
+        <v>111269210</v>
       </c>
       <c r="B30" t="n">
-        <v>78611</v>
+        <v>96368</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4035,21 +4067,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6463</v>
+        <v>221952</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4059,10 +4091,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>478131.5555229208</v>
+        <v>478331.2119967352</v>
       </c>
       <c r="R30" t="n">
-        <v>7035393.356959587</v>
+        <v>7035102.023397501</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4135,10 +4167,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111269229</v>
+        <v>111269190</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4147,50 +4179,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478817.998279659</v>
+        <v>478435.3217485328</v>
       </c>
       <c r="R31" t="n">
-        <v>7034649.428534828</v>
+        <v>7034858.312157811</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4241,7 +4261,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4264,10 +4283,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111269209</v>
+        <v>111269199</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4276,25 +4295,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4304,10 +4323,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478901.5660567298</v>
+        <v>478232.9764472881</v>
       </c>
       <c r="R32" t="n">
-        <v>7034341.379193312</v>
+        <v>7035284.822420777</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4380,10 +4399,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111269208</v>
+        <v>111269182</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4392,25 +4411,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4420,10 +4439,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477862.617980854</v>
+        <v>478899.1546511155</v>
       </c>
       <c r="R33" t="n">
-        <v>7035573.744644682</v>
+        <v>7034383.470614045</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4496,10 +4515,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111269162</v>
+        <v>111269235</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>96370</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4512,21 +4531,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>219847</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4536,10 +4555,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478192.7176835258</v>
+        <v>478916.9064283832</v>
       </c>
       <c r="R34" t="n">
-        <v>7035294.941605572</v>
+        <v>7034492.568134896</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4612,10 +4631,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111269203</v>
+        <v>111269200</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4624,25 +4643,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4652,10 +4671,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478058.6092578957</v>
+        <v>478062.6355557253</v>
       </c>
       <c r="R35" t="n">
-        <v>7035406.38624617</v>
+        <v>7035405.463660207</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4728,10 +4747,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111269226</v>
+        <v>111269162</v>
       </c>
       <c r="B36" t="n">
-        <v>95674</v>
+        <v>89369</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4744,21 +4763,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222741</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4768,10 +4787,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477865.6022531585</v>
+        <v>478192.7176835258</v>
       </c>
       <c r="R36" t="n">
-        <v>7035551.79909836</v>
+        <v>7035294.941605572</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4844,10 +4863,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111269223</v>
+        <v>111269226</v>
       </c>
       <c r="B37" t="n">
-        <v>96350</v>
+        <v>95674</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4860,21 +4879,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219811</v>
+        <v>222741</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4884,10 +4903,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>478905.3504414497</v>
+        <v>477865.6022531585</v>
       </c>
       <c r="R37" t="n">
-        <v>7034439.380320764</v>
+        <v>7035551.79909836</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4960,10 +4979,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111269198</v>
+        <v>111269236</v>
       </c>
       <c r="B38" t="n">
-        <v>96674</v>
+        <v>98535</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4976,21 +4995,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219880</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5000,10 +5019,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478924.4925105923</v>
+        <v>478464.4348576546</v>
       </c>
       <c r="R38" t="n">
-        <v>7034419.559528337</v>
+        <v>7034855.87809607</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5076,10 +5095,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111269175</v>
+        <v>111269198</v>
       </c>
       <c r="B39" t="n">
-        <v>101703</v>
+        <v>96674</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5092,21 +5111,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222412</v>
+        <v>219880</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5116,10 +5135,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>478482.1254467559</v>
+        <v>478924.4925105923</v>
       </c>
       <c r="R39" t="n">
-        <v>7034155.276495157</v>
+        <v>7034419.559528337</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5308,10 +5327,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111269174</v>
+        <v>111269211</v>
       </c>
       <c r="B41" t="n">
-        <v>85062</v>
+        <v>95674</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5320,25 +5339,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>249278</v>
+        <v>222741</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5348,10 +5367,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478440.5561046514</v>
+        <v>478205.1017132453</v>
       </c>
       <c r="R41" t="n">
-        <v>7034903.478403827</v>
+        <v>7035271.140414268</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5424,10 +5443,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111269190</v>
+        <v>111269230</v>
       </c>
       <c r="B42" t="n">
-        <v>78107</v>
+        <v>96266</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5436,25 +5455,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6453</v>
+        <v>223591</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5464,10 +5483,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478435.3217485328</v>
+        <v>478212.2799582495</v>
       </c>
       <c r="R42" t="n">
-        <v>7034858.312157811</v>
+        <v>7035272.433911666</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5540,10 +5559,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111269196</v>
+        <v>111269172</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5552,41 +5571,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Stenbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478738.1584179544</v>
+        <v>477872.0964411914</v>
       </c>
       <c r="R43" t="n">
-        <v>7034235.480372666</v>
+        <v>7035519.09025224</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5637,24 +5653,8 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111269160</v>
+        <v>111269208</v>
       </c>
       <c r="B44" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5691,21 +5691,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478945.8964116597</v>
+        <v>477862.617980854</v>
       </c>
       <c r="R44" t="n">
-        <v>7034470.892458806</v>
+        <v>7035573.744644682</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111269201</v>
+        <v>111269159</v>
       </c>
       <c r="B45" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5803,25 +5803,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5831,10 +5831,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478804.9928740829</v>
+        <v>478107.4742202407</v>
       </c>
       <c r="R45" t="n">
-        <v>7034648.172051027</v>
+        <v>7035410.078216657</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111269172</v>
+        <v>111269171</v>
       </c>
       <c r="B46" t="n">
-        <v>96674</v>
+        <v>98535</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5923,21 +5923,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>219880</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111269212</v>
+        <v>111269188</v>
       </c>
       <c r="B47" t="n">
-        <v>96674</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>219880</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478902.9047426366</v>
+        <v>478124.8470129518</v>
       </c>
       <c r="R47" t="n">
-        <v>7034340.475126858</v>
+        <v>7035395.192764859</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111269217</v>
+        <v>111269216</v>
       </c>
       <c r="B48" t="n">
-        <v>96370</v>
+        <v>95674</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6155,21 +6155,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>219847</v>
+        <v>222741</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6179,10 +6179,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478296.0589666626</v>
+        <v>478665.7570384996</v>
       </c>
       <c r="R48" t="n">
-        <v>7035138.510074378</v>
+        <v>7034737.269069254</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6255,10 +6255,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111269210</v>
+        <v>111269212</v>
       </c>
       <c r="B49" t="n">
-        <v>96368</v>
+        <v>96674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6271,21 +6271,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221952</v>
+        <v>219880</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6295,10 +6295,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478331.2119967352</v>
+        <v>478902.9047426366</v>
       </c>
       <c r="R49" t="n">
-        <v>7035102.023397501</v>
+        <v>7034340.475126858</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6371,10 +6371,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111269180</v>
+        <v>111269214</v>
       </c>
       <c r="B50" t="n">
-        <v>96674</v>
+        <v>90332</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6387,21 +6387,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219880</v>
+        <v>4769</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6411,10 +6411,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478840.8911244124</v>
+        <v>477911.8549794651</v>
       </c>
       <c r="R50" t="n">
-        <v>7034248.675100373</v>
+        <v>7035631.571096683</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6605,6 +6605,1788 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111901584</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>478210.8823140781</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7035067.488268948</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111901587</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>477611.096214832</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7033310.625431053</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111901545</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>477666.6718496145</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7033500.081917049</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111901547</v>
+      </c>
+      <c r="B55" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>477523.7983399219</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7033329.5960882</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111901544</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>477638.5281090657</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7033514.606123095</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111901551</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>477432.586959724</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7033429.191801991</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111901618</v>
+      </c>
+      <c r="B58" t="n">
+        <v>85062</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>477471.0231659907</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7033411.906366638</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111901519</v>
+      </c>
+      <c r="B59" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>477765.0897337386</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7033404.474773662</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111901546</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>477668.4830064432</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7033374.253324097</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111901518</v>
+      </c>
+      <c r="B61" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>477673.8480424859</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7033500.479530043</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111901619</v>
+      </c>
+      <c r="B62" t="n">
+        <v>85062</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>478523.10621621</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7034650.501669589</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>111901549</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>477463.5153726833</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7033364.497689161</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111901548</v>
+      </c>
+      <c r="B64" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>477476.2138649083</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7033385.004830683</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>111901550</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>477473.2080285564</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7033403.83150613</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>111901585</v>
+      </c>
+      <c r="B66" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>478338.6535977835</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7035076.017275342</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,7 +6607,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901584</v>
+        <v>111901585</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478210.8823140781</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R52" t="n">
-        <v>7035067.488268948</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901545</v>
+        <v>111901548</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6896,10 +6896,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477666.6718496145</v>
+        <v>477476.2138649083</v>
       </c>
       <c r="R54" t="n">
-        <v>7033500.081917049</v>
+        <v>7033385.004830683</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901547</v>
+        <v>111901519</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6989,38 +6989,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477523.7983399219</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R55" t="n">
-        <v>7033329.5960882</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7063,11 +7059,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7094,7 +7085,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901544</v>
+        <v>111901546</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7138,10 +7129,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477638.5281090657</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R56" t="n">
-        <v>7033514.606123095</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7215,10 +7206,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901551</v>
+        <v>111901619</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7231,38 +7222,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477432.586959724</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R57" t="n">
-        <v>7033429.191801991</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7305,11 +7292,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7336,10 +7318,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901618</v>
+        <v>111901547</v>
       </c>
       <c r="B58" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7352,34 +7334,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477471.0231659907</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R58" t="n">
-        <v>7033411.906366638</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7422,6 +7408,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7448,10 +7439,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901519</v>
+        <v>111901551</v>
       </c>
       <c r="B59" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7464,34 +7455,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477765.0897337386</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R59" t="n">
-        <v>7033404.474773662</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7534,6 +7529,11 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7560,10 +7560,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901546</v>
+        <v>111901618</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7576,38 +7576,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477668.4830064432</v>
+        <v>477471.0231659907</v>
       </c>
       <c r="R60" t="n">
-        <v>7033374.253324097</v>
+        <v>7033411.906366638</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7650,11 +7646,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7793,10 +7784,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901619</v>
+        <v>111901545</v>
       </c>
       <c r="B62" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7809,34 +7800,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>478523.10621621</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R62" t="n">
-        <v>7034650.501669589</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7879,6 +7874,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8026,7 +8026,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901548</v>
+        <v>111901584</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8070,10 +8070,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477476.2138649083</v>
+        <v>478210.8823140781</v>
       </c>
       <c r="R64" t="n">
-        <v>7033385.004830683</v>
+        <v>7035067.488268948</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8147,7 +8147,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901550</v>
+        <v>111901544</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8191,10 +8191,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477473.2080285564</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R65" t="n">
-        <v>7033403.83150613</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901585</v>
+        <v>111901550</v>
       </c>
       <c r="B66" t="n">
         <v>56398</v>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>478338.6535977835</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R66" t="n">
-        <v>7035076.017275342</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -7672,10 +7672,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901518</v>
+        <v>111901545</v>
       </c>
       <c r="B61" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7688,34 +7688,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477673.8480424859</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R61" t="n">
-        <v>7033500.479530043</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7758,6 +7762,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7784,10 +7793,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901545</v>
+        <v>111901518</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7800,38 +7809,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477666.6718496145</v>
+        <v>477673.8480424859</v>
       </c>
       <c r="R62" t="n">
-        <v>7033500.081917049</v>
+        <v>7033500.479530043</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7874,11 +7879,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,7 +6607,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901585</v>
+        <v>111901546</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478338.6535977835</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R52" t="n">
-        <v>7035076.017275342</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901548</v>
+        <v>111901547</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6896,10 +6896,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477476.2138649083</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R54" t="n">
-        <v>7033385.004830683</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6973,10 +6973,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901519</v>
+        <v>111901544</v>
       </c>
       <c r="B55" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6989,34 +6989,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477765.0897337386</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R55" t="n">
-        <v>7033404.474773662</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7059,6 +7063,11 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7085,7 +7094,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901546</v>
+        <v>111901584</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7129,10 +7138,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477668.4830064432</v>
+        <v>478210.8823140781</v>
       </c>
       <c r="R56" t="n">
-        <v>7033374.253324097</v>
+        <v>7035067.488268948</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7179,7 +7188,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7206,10 +7215,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901619</v>
+        <v>111901519</v>
       </c>
       <c r="B57" t="n">
-        <v>85062</v>
+        <v>86223</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7222,21 +7231,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>249278</v>
+        <v>4412</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7246,10 +7255,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478523.10621621</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R57" t="n">
-        <v>7034650.501669589</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7318,7 +7327,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901547</v>
+        <v>111901549</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7362,10 +7371,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477523.7983399219</v>
+        <v>477463.5153726833</v>
       </c>
       <c r="R58" t="n">
-        <v>7033329.5960882</v>
+        <v>7033364.497689161</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7412,7 +7421,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7439,7 +7448,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901551</v>
+        <v>111901585</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7483,10 +7492,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477432.586959724</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R59" t="n">
-        <v>7033429.191801991</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7533,7 +7542,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7560,10 +7569,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901618</v>
+        <v>111901545</v>
       </c>
       <c r="B60" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7576,34 +7585,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477471.0231659907</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R60" t="n">
-        <v>7033411.906366638</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7646,6 +7659,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7672,10 +7690,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901545</v>
+        <v>111901619</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7688,38 +7706,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477666.6718496145</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R61" t="n">
-        <v>7033500.081917049</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7762,11 +7776,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7905,7 +7914,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901549</v>
+        <v>111901550</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7949,10 +7958,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477463.5153726833</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R63" t="n">
-        <v>7033364.497689161</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7999,7 +8008,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8026,7 +8035,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901584</v>
+        <v>111901548</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8070,10 +8079,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478210.8823140781</v>
+        <v>477476.2138649083</v>
       </c>
       <c r="R64" t="n">
-        <v>7035067.488268948</v>
+        <v>7033385.004830683</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8120,7 +8129,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8147,7 +8156,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901544</v>
+        <v>111901551</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8191,10 +8200,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477638.5281090657</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R65" t="n">
-        <v>7033514.606123095</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8241,7 +8250,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8268,10 +8277,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901550</v>
+        <v>111901618</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8284,38 +8293,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477473.2080285564</v>
+        <v>477471.0231659907</v>
       </c>
       <c r="R66" t="n">
-        <v>7033403.83150613</v>
+        <v>7033411.906366638</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8358,11 +8363,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -7448,7 +7448,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901585</v>
+        <v>111901545</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478338.6535977835</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R59" t="n">
-        <v>7035076.017275342</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901545</v>
+        <v>111901619</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7585,38 +7585,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477666.6718496145</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R60" t="n">
-        <v>7033500.081917049</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7659,11 +7655,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7690,10 +7681,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901619</v>
+        <v>111901585</v>
       </c>
       <c r="B61" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7706,34 +7697,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478523.10621621</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R61" t="n">
-        <v>7034650.501669589</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7776,6 +7771,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,7 +6607,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901546</v>
+        <v>111901549</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477668.4830064432</v>
+        <v>477463.5153726833</v>
       </c>
       <c r="R52" t="n">
-        <v>7033374.253324097</v>
+        <v>7033364.497689161</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6728,10 +6728,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901587</v>
+        <v>111901547</v>
       </c>
       <c r="B53" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6744,46 +6744,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477611.096214832</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R53" t="n">
-        <v>7033310.625431053</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6826,6 +6818,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6852,7 +6849,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901547</v>
+        <v>111901585</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6896,10 +6893,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477523.7983399219</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R54" t="n">
-        <v>7033329.5960882</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6946,7 +6943,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6973,7 +6970,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901544</v>
+        <v>111901584</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7017,10 +7014,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477638.5281090657</v>
+        <v>478210.8823140781</v>
       </c>
       <c r="R55" t="n">
-        <v>7033514.606123095</v>
+        <v>7035067.488268948</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7067,7 +7064,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7094,7 +7091,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901584</v>
+        <v>111901545</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7138,10 +7135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>478210.8823140781</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R56" t="n">
-        <v>7035067.488268948</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7188,7 +7185,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7215,7 +7212,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901519</v>
+        <v>111901518</v>
       </c>
       <c r="B57" t="n">
         <v>86223</v>
@@ -7255,10 +7252,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477765.0897337386</v>
+        <v>477673.8480424859</v>
       </c>
       <c r="R57" t="n">
-        <v>7033404.474773662</v>
+        <v>7033500.479530043</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7327,10 +7324,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901549</v>
+        <v>111901519</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7343,38 +7340,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477463.5153726833</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R58" t="n">
-        <v>7033364.497689161</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7417,11 +7410,6 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7448,7 +7436,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901545</v>
+        <v>111901544</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7492,10 +7480,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477666.6718496145</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R59" t="n">
-        <v>7033500.081917049</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7569,10 +7557,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901619</v>
+        <v>111901551</v>
       </c>
       <c r="B60" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7585,34 +7573,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478523.10621621</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R60" t="n">
-        <v>7034650.501669589</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7655,6 +7647,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7681,7 +7678,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901585</v>
+        <v>111901546</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7725,10 +7722,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478338.6535977835</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R61" t="n">
-        <v>7035076.017275342</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7802,10 +7799,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901518</v>
+        <v>111901587</v>
       </c>
       <c r="B62" t="n">
-        <v>86223</v>
+        <v>56543</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7818,34 +7815,46 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4412</v>
+        <v>103021</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477673.8480424859</v>
+        <v>477611.096214832</v>
       </c>
       <c r="R62" t="n">
-        <v>7033500.479530043</v>
+        <v>7033310.625431053</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7914,10 +7923,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901550</v>
+        <v>111901618</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7930,38 +7939,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477473.2080285564</v>
+        <v>477471.0231659907</v>
       </c>
       <c r="R63" t="n">
-        <v>7033403.83150613</v>
+        <v>7033411.906366638</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8004,11 +8009,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8156,10 +8156,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901551</v>
+        <v>111901619</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8172,38 +8172,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477432.586959724</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R65" t="n">
-        <v>7033429.191801991</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8246,11 +8242,6 @@
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8277,10 +8268,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901618</v>
+        <v>111901550</v>
       </c>
       <c r="B66" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8293,34 +8284,38 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477471.0231659907</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R66" t="n">
-        <v>7033411.906366638</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8363,6 +8358,11 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,7 +6607,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901549</v>
+        <v>111901546</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477463.5153726833</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R52" t="n">
-        <v>7033364.497689161</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6728,10 +6728,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901547</v>
+        <v>111901619</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6744,38 +6744,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477523.7983399219</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R53" t="n">
-        <v>7033329.5960882</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6818,11 +6814,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6849,7 +6840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901585</v>
+        <v>111901551</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6893,10 +6884,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>478338.6535977835</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R54" t="n">
-        <v>7035076.017275342</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6943,7 +6934,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6970,7 +6961,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901584</v>
+        <v>111901549</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7014,10 +7005,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478210.8823140781</v>
+        <v>477463.5153726833</v>
       </c>
       <c r="R55" t="n">
-        <v>7035067.488268948</v>
+        <v>7033364.497689161</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7064,7 +7055,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7091,10 +7082,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901545</v>
+        <v>111901518</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7107,38 +7098,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477666.6718496145</v>
+        <v>477673.8480424859</v>
       </c>
       <c r="R56" t="n">
-        <v>7033500.081917049</v>
+        <v>7033500.479530043</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7181,11 +7168,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7212,10 +7194,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901518</v>
+        <v>111901547</v>
       </c>
       <c r="B57" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7228,34 +7210,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477673.8480424859</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R57" t="n">
-        <v>7033500.479530043</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7298,6 +7284,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7324,10 +7315,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901519</v>
+        <v>111901618</v>
       </c>
       <c r="B58" t="n">
-        <v>86223</v>
+        <v>85062</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7340,21 +7331,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4412</v>
+        <v>249278</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7364,10 +7355,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477765.0897337386</v>
+        <v>477471.0231659907</v>
       </c>
       <c r="R58" t="n">
-        <v>7033404.474773662</v>
+        <v>7033411.906366638</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7436,7 +7427,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901544</v>
+        <v>111901548</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7480,10 +7471,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477638.5281090657</v>
+        <v>477476.2138649083</v>
       </c>
       <c r="R59" t="n">
-        <v>7033514.606123095</v>
+        <v>7033385.004830683</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7557,7 +7548,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901551</v>
+        <v>111901545</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7601,10 +7592,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477432.586959724</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R60" t="n">
-        <v>7033429.191801991</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7651,7 +7642,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7678,7 +7669,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901546</v>
+        <v>111901584</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7722,10 +7713,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477668.4830064432</v>
+        <v>478210.8823140781</v>
       </c>
       <c r="R61" t="n">
-        <v>7033374.253324097</v>
+        <v>7035067.488268948</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7772,7 +7763,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7799,10 +7790,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901587</v>
+        <v>111901544</v>
       </c>
       <c r="B62" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7815,46 +7806,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477611.096214832</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R62" t="n">
-        <v>7033310.625431053</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7897,6 +7880,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7923,10 +7911,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901618</v>
+        <v>111901585</v>
       </c>
       <c r="B63" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7939,34 +7927,38 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477471.0231659907</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R63" t="n">
-        <v>7033411.906366638</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8009,6 +8001,11 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8035,7 +8032,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901548</v>
+        <v>111901550</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8079,10 +8076,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477476.2138649083</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R64" t="n">
-        <v>7033385.004830683</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8156,10 +8153,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901619</v>
+        <v>111901587</v>
       </c>
       <c r="B65" t="n">
-        <v>85062</v>
+        <v>56543</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8172,34 +8169,46 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>249278</v>
+        <v>103021</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478523.10621621</v>
+        <v>477611.096214832</v>
       </c>
       <c r="R65" t="n">
-        <v>7034650.501669589</v>
+        <v>7033310.625431053</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8268,10 +8277,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901550</v>
+        <v>111901519</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8284,38 +8293,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477473.2080285564</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R66" t="n">
-        <v>7033403.83150613</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8358,11 +8363,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY66"/>
+  <dimension ref="A1:AY67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901546</v>
+        <v>111901618</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6623,38 +6623,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477668.4830064432</v>
+        <v>477471.0231659907</v>
       </c>
       <c r="R52" t="n">
-        <v>7033374.253324097</v>
+        <v>7033411.906366638</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6697,11 +6693,6 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6728,10 +6719,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901619</v>
+        <v>111901585</v>
       </c>
       <c r="B53" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6744,34 +6735,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>478523.10621621</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R53" t="n">
-        <v>7034650.501669589</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6814,6 +6809,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6840,7 +6840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901551</v>
+        <v>111901544</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477432.586959724</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R54" t="n">
-        <v>7033429.191801991</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6961,7 +6961,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901549</v>
+        <v>111901548</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7005,10 +7005,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477463.5153726833</v>
+        <v>477476.2138649083</v>
       </c>
       <c r="R55" t="n">
-        <v>7033364.497689161</v>
+        <v>7033385.004830683</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7082,10 +7082,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901518</v>
+        <v>111901584</v>
       </c>
       <c r="B56" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7098,34 +7098,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477673.8480424859</v>
+        <v>478210.8823140781</v>
       </c>
       <c r="R56" t="n">
-        <v>7033500.479530043</v>
+        <v>7035067.488268948</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7168,6 +7172,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7194,7 +7203,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901547</v>
+        <v>111901550</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7238,10 +7247,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477523.7983399219</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R57" t="n">
-        <v>7033329.5960882</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7288,7 +7297,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7315,10 +7324,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901618</v>
+        <v>111901545</v>
       </c>
       <c r="B58" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7331,34 +7340,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477471.0231659907</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R58" t="n">
-        <v>7033411.906366638</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7401,6 +7414,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7427,7 +7445,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901548</v>
+        <v>111901549</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7471,10 +7489,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477476.2138649083</v>
+        <v>477463.5153726833</v>
       </c>
       <c r="R59" t="n">
-        <v>7033385.004830683</v>
+        <v>7033364.497689161</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7521,7 +7539,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7548,7 +7566,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901545</v>
+        <v>111901547</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7592,10 +7610,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477666.6718496145</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R60" t="n">
-        <v>7033500.081917049</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7642,7 +7660,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7669,10 +7687,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901584</v>
+        <v>111901519</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7685,38 +7703,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478210.8823140781</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R61" t="n">
-        <v>7035067.488268948</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7759,11 +7773,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7790,10 +7799,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901544</v>
+        <v>111901587</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7806,38 +7815,46 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477638.5281090657</v>
+        <v>477611.096214832</v>
       </c>
       <c r="R62" t="n">
-        <v>7033514.606123095</v>
+        <v>7033310.625431053</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7880,11 +7897,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7911,10 +7923,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901585</v>
+        <v>111901619</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7927,38 +7939,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478338.6535977835</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R63" t="n">
-        <v>7035076.017275342</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8001,11 +8009,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8032,7 +8035,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901550</v>
+        <v>111901546</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8076,10 +8079,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477473.2080285564</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R64" t="n">
-        <v>7033403.83150613</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8153,10 +8156,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901587</v>
+        <v>111901518</v>
       </c>
       <c r="B65" t="n">
-        <v>56543</v>
+        <v>86223</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8169,46 +8172,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477611.096214832</v>
+        <v>477673.8480424859</v>
       </c>
       <c r="R65" t="n">
-        <v>7033310.625431053</v>
+        <v>7033500.479530043</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8277,10 +8268,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901519</v>
+        <v>111901551</v>
       </c>
       <c r="B66" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8293,34 +8284,38 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477765.0897337386</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R66" t="n">
-        <v>7033404.474773662</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8365,6 +8360,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -8386,6 +8386,119 @@
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112102606</v>
+      </c>
+      <c r="B67" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Storbäcken (Storbäcken), Jmt</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>478087.5820521876</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7035318.930008939</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Jonny Daborg</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Jonny Daborg</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -7203,7 +7203,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901550</v>
+        <v>111901545</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477473.2080285564</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R57" t="n">
-        <v>7033403.83150613</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901545</v>
+        <v>111901550</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7368,10 +7368,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477666.6718496145</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R58" t="n">
-        <v>7033500.081917049</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6719,7 +6719,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901585</v>
+        <v>111901547</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6763,10 +6763,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>478338.6535977835</v>
+        <v>477523.7983399219</v>
       </c>
       <c r="R53" t="n">
-        <v>7035076.017275342</v>
+        <v>7033329.5960882</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6840,7 +6840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901544</v>
+        <v>111901550</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477638.5281090657</v>
+        <v>477473.2080285564</v>
       </c>
       <c r="R54" t="n">
-        <v>7033514.606123095</v>
+        <v>7033403.83150613</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901548</v>
+        <v>111901544</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7005,10 +7005,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477476.2138649083</v>
+        <v>477638.5281090657</v>
       </c>
       <c r="R55" t="n">
-        <v>7033385.004830683</v>
+        <v>7033514.606123095</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901545</v>
+        <v>111901585</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477666.6718496145</v>
+        <v>478338.6535977835</v>
       </c>
       <c r="R57" t="n">
-        <v>7033500.081917049</v>
+        <v>7035076.017275342</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901550</v>
+        <v>111901551</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7368,10 +7368,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477473.2080285564</v>
+        <v>477432.586959724</v>
       </c>
       <c r="R58" t="n">
-        <v>7033403.83150613</v>
+        <v>7033429.191801991</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7445,10 +7445,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901549</v>
+        <v>111901619</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7461,38 +7461,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477463.5153726833</v>
+        <v>478523.10621621</v>
       </c>
       <c r="R59" t="n">
-        <v>7033364.497689161</v>
+        <v>7034650.501669589</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7535,11 +7531,6 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7566,10 +7557,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901547</v>
+        <v>111901519</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7582,38 +7573,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477523.7983399219</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R60" t="n">
-        <v>7033329.5960882</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7656,11 +7643,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7687,10 +7669,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901519</v>
+        <v>111901545</v>
       </c>
       <c r="B61" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7703,34 +7685,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477765.0897337386</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R61" t="n">
-        <v>7033404.474773662</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7773,6 +7759,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7799,10 +7790,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901587</v>
+        <v>111901546</v>
       </c>
       <c r="B62" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7815,46 +7806,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477611.096214832</v>
+        <v>477668.4830064432</v>
       </c>
       <c r="R62" t="n">
-        <v>7033310.625431053</v>
+        <v>7033374.253324097</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7897,6 +7880,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7923,10 +7911,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901619</v>
+        <v>111901518</v>
       </c>
       <c r="B63" t="n">
-        <v>85062</v>
+        <v>86223</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7939,21 +7927,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>249278</v>
+        <v>4412</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7963,10 +7951,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478523.10621621</v>
+        <v>477673.8480424859</v>
       </c>
       <c r="R63" t="n">
-        <v>7034650.501669589</v>
+        <v>7033500.479530043</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8035,7 +8023,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901546</v>
+        <v>111901549</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8079,10 +8067,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477668.4830064432</v>
+        <v>477463.5153726833</v>
       </c>
       <c r="R64" t="n">
-        <v>7033374.253324097</v>
+        <v>7033364.497689161</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8129,7 +8117,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8156,10 +8144,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901518</v>
+        <v>111901548</v>
       </c>
       <c r="B65" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8172,34 +8160,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477673.8480424859</v>
+        <v>477476.2138649083</v>
       </c>
       <c r="R65" t="n">
-        <v>7033500.479530043</v>
+        <v>7033385.004830683</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8242,6 +8234,11 @@
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8268,10 +8265,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901551</v>
+        <v>111901587</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8284,38 +8281,46 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477432.586959724</v>
+        <v>477611.096214832</v>
       </c>
       <c r="R66" t="n">
-        <v>7033429.191801991</v>
+        <v>7033310.625431053</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8358,11 +8363,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -7557,10 +7557,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901519</v>
+        <v>111901545</v>
       </c>
       <c r="B60" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7573,34 +7573,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477765.0897337386</v>
+        <v>477666.6718496145</v>
       </c>
       <c r="R60" t="n">
-        <v>7033404.474773662</v>
+        <v>7033500.081917049</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7643,6 +7647,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7669,10 +7678,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901545</v>
+        <v>111901519</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7685,38 +7694,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477666.6718496145</v>
+        <v>477765.0897337386</v>
       </c>
       <c r="R61" t="n">
-        <v>7033500.081917049</v>
+        <v>7033404.474773662</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7759,11 +7764,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,10 +6607,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901618</v>
+        <v>111901548</v>
       </c>
       <c r="B52" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6623,34 +6623,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477471.0231659907</v>
+        <v>477476</v>
       </c>
       <c r="R52" t="n">
-        <v>7033411.906366638</v>
+        <v>7033385</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6680,19 +6684,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6719,10 +6718,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901547</v>
+        <v>111901519</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6735,38 +6734,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477523.7983399219</v>
+        <v>477765</v>
       </c>
       <c r="R53" t="n">
-        <v>7033329.5960882</v>
+        <v>7033404</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6796,24 +6791,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6840,10 +6820,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901550</v>
+        <v>111901518</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6856,38 +6836,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477473.2080285564</v>
+        <v>477674</v>
       </c>
       <c r="R54" t="n">
-        <v>7033403.83150613</v>
+        <v>7033500</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6917,24 +6893,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6961,7 +6922,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901544</v>
+        <v>111901550</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -7005,10 +6966,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477638.5281090657</v>
+        <v>477473</v>
       </c>
       <c r="R55" t="n">
-        <v>7033514.606123095</v>
+        <v>7033404</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7038,19 +6999,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -7082,7 +7033,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901584</v>
+        <v>111901549</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7126,10 +7077,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>478210.8823140781</v>
+        <v>477464</v>
       </c>
       <c r="R56" t="n">
-        <v>7035067.488268948</v>
+        <v>7033364</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7159,24 +7110,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7247,10 +7188,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478338.6535977835</v>
+        <v>478339</v>
       </c>
       <c r="R57" t="n">
-        <v>7035076.017275342</v>
+        <v>7035076</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7280,19 +7221,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -7368,10 +7299,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477432.586959724</v>
+        <v>477433</v>
       </c>
       <c r="R58" t="n">
-        <v>7033429.191801991</v>
+        <v>7033429</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7401,19 +7332,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -7445,10 +7366,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901619</v>
+        <v>111901544</v>
       </c>
       <c r="B59" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7461,34 +7382,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478523.10621621</v>
+        <v>477639</v>
       </c>
       <c r="R59" t="n">
-        <v>7034650.501669589</v>
+        <v>7033515</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7518,19 +7443,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7557,10 +7477,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901545</v>
+        <v>111901618</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7573,38 +7493,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477666.6718496145</v>
+        <v>477471</v>
       </c>
       <c r="R60" t="n">
-        <v>7033500.081917049</v>
+        <v>7033412</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7634,24 +7550,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7678,10 +7579,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901519</v>
+        <v>111901545</v>
       </c>
       <c r="B61" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7694,34 +7595,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477765.0897337386</v>
+        <v>477667</v>
       </c>
       <c r="R61" t="n">
-        <v>7033404.474773662</v>
+        <v>7033500</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7751,19 +7656,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7790,7 +7690,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901546</v>
+        <v>111901547</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7834,10 +7734,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477668.4830064432</v>
+        <v>477524</v>
       </c>
       <c r="R62" t="n">
-        <v>7033374.253324097</v>
+        <v>7033330</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7867,24 +7767,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7911,10 +7801,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901518</v>
+        <v>111901584</v>
       </c>
       <c r="B63" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7927,34 +7817,38 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477673.8480424859</v>
+        <v>478211</v>
       </c>
       <c r="R63" t="n">
-        <v>7033500.479530043</v>
+        <v>7035067</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7984,19 +7878,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8023,7 +7912,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901549</v>
+        <v>111901546</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8067,10 +7956,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477463.5153726833</v>
+        <v>477668</v>
       </c>
       <c r="R64" t="n">
-        <v>7033364.497689161</v>
+        <v>7033374</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8100,24 +7989,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8144,10 +8023,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901548</v>
+        <v>111901619</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8160,38 +8039,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477476.2138649083</v>
+        <v>478523</v>
       </c>
       <c r="R65" t="n">
-        <v>7033385.004830683</v>
+        <v>7034651</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8221,24 +8096,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8317,10 +8177,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477611.096214832</v>
+        <v>477611</v>
       </c>
       <c r="R66" t="n">
-        <v>7033310.625431053</v>
+        <v>7033311</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8350,19 +8210,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8430,10 +8280,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478087.5820521876</v>
+        <v>478088</v>
       </c>
       <c r="R67" t="n">
-        <v>7035318.930008939</v>
+        <v>7035319</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,10 +6607,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901548</v>
+        <v>111901584</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477476</v>
+        <v>478211</v>
       </c>
       <c r="R52" t="n">
-        <v>7033385</v>
+        <v>7035067</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6718,10 +6718,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901519</v>
+        <v>111901585</v>
       </c>
       <c r="B53" t="n">
-        <v>86223</v>
+        <v>56430</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6734,34 +6734,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477765</v>
+        <v>478339</v>
       </c>
       <c r="R53" t="n">
-        <v>7033404</v>
+        <v>7035076</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6794,6 +6798,11 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6820,10 +6829,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901518</v>
+        <v>111901619</v>
       </c>
       <c r="B54" t="n">
-        <v>86223</v>
+        <v>85183</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6836,21 +6845,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4412</v>
+        <v>249278</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6860,10 +6869,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477674</v>
+        <v>478523</v>
       </c>
       <c r="R54" t="n">
-        <v>7033500</v>
+        <v>7034651</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6922,10 +6931,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901550</v>
+        <v>112102606</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>89033</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6938,41 +6947,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Landvågen, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477473</v>
+        <v>478088</v>
       </c>
       <c r="R55" t="n">
-        <v>7033404</v>
+        <v>7035319</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6996,17 +7002,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7021,22 +7032,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jonny Daborg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jonny Daborg</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901549</v>
+        <v>111901546</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7077,10 +7088,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477464</v>
+        <v>477668</v>
       </c>
       <c r="R56" t="n">
-        <v>7033364</v>
+        <v>7033374</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7117,7 +7128,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7144,10 +7155,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901585</v>
+        <v>111901587</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>56575</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7160,38 +7171,46 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478339</v>
+        <v>477611</v>
       </c>
       <c r="R57" t="n">
-        <v>7035076</v>
+        <v>7033311</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7224,11 +7243,6 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7255,10 +7269,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901551</v>
+        <v>111901519</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>86357</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7271,38 +7285,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477433</v>
+        <v>477765</v>
       </c>
       <c r="R58" t="n">
-        <v>7033429</v>
+        <v>7033404</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7335,11 +7345,6 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7366,10 +7371,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901544</v>
+        <v>111901548</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7410,10 +7415,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477639</v>
+        <v>477476</v>
       </c>
       <c r="R59" t="n">
-        <v>7033515</v>
+        <v>7033385</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7477,10 +7482,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901618</v>
+        <v>111901547</v>
       </c>
       <c r="B60" t="n">
-        <v>85062</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7493,34 +7498,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477471</v>
+        <v>477524</v>
       </c>
       <c r="R60" t="n">
-        <v>7033412</v>
+        <v>7033330</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7553,6 +7562,11 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7582,7 +7596,7 @@
         <v>111901545</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7690,10 +7704,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901547</v>
+        <v>111901518</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>86357</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7706,38 +7720,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477524</v>
+        <v>477674</v>
       </c>
       <c r="R62" t="n">
-        <v>7033330</v>
+        <v>7033500</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7770,11 +7780,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7801,10 +7806,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901584</v>
+        <v>111901549</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7845,10 +7850,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478211</v>
+        <v>477464</v>
       </c>
       <c r="R63" t="n">
-        <v>7035067</v>
+        <v>7033364</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7885,7 +7890,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7912,10 +7917,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901546</v>
+        <v>111901551</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7956,10 +7961,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477668</v>
+        <v>477433</v>
       </c>
       <c r="R64" t="n">
-        <v>7033374</v>
+        <v>7033429</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7996,7 +8001,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8023,10 +8028,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901619</v>
+        <v>111901550</v>
       </c>
       <c r="B65" t="n">
-        <v>85062</v>
+        <v>56430</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8039,34 +8044,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478523</v>
+        <v>477473</v>
       </c>
       <c r="R65" t="n">
-        <v>7034651</v>
+        <v>7033404</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8099,6 +8108,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8125,10 +8139,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901587</v>
+        <v>111901618</v>
       </c>
       <c r="B66" t="n">
-        <v>56543</v>
+        <v>85183</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8141,46 +8155,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103021</v>
+        <v>249278</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477611</v>
+        <v>477471</v>
       </c>
       <c r="R66" t="n">
-        <v>7033311</v>
+        <v>7033412</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8239,10 +8241,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112102606</v>
+        <v>111901544</v>
       </c>
       <c r="B67" t="n">
-        <v>88899</v>
+        <v>56430</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8255,38 +8257,41 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3286</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478088</v>
+        <v>477639</v>
       </c>
       <c r="R67" t="n">
-        <v>7035319</v>
+        <v>7033515</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8310,22 +8315,17 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>10:16</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>10:16</t>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8340,12 +8340,12 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Jonny Daborg</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Jonny Daborg</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>

--- a/artfynd/A 29992-2023.xlsx
+++ b/artfynd/A 29992-2023.xlsx
@@ -6607,7 +6607,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901584</v>
+        <v>111901585</v>
       </c>
       <c r="B52" t="n">
         <v>56430</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478211</v>
+        <v>478339</v>
       </c>
       <c r="R52" t="n">
-        <v>7035067</v>
+        <v>7035076</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6718,7 +6718,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901585</v>
+        <v>111901584</v>
       </c>
       <c r="B53" t="n">
         <v>56430</v>
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>478339</v>
+        <v>478211</v>
       </c>
       <c r="R53" t="n">
-        <v>7035076</v>
+        <v>7035067</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6832,7 +6832,7 @@
         <v>111901619</v>
       </c>
       <c r="B54" t="n">
-        <v>85183</v>
+        <v>85197</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>112102606</v>
       </c>
       <c r="B55" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7044,10 +7044,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901546</v>
+        <v>111901519</v>
       </c>
       <c r="B56" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7060,38 +7060,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477668</v>
+        <v>477765</v>
       </c>
       <c r="R56" t="n">
-        <v>7033374</v>
+        <v>7033404</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7124,11 +7120,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7155,10 +7146,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901587</v>
+        <v>111901546</v>
       </c>
       <c r="B57" t="n">
-        <v>56575</v>
+        <v>56430</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7171,46 +7162,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477611</v>
+        <v>477668</v>
       </c>
       <c r="R57" t="n">
-        <v>7033311</v>
+        <v>7033374</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7243,6 +7226,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7269,10 +7257,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901519</v>
+        <v>111901547</v>
       </c>
       <c r="B58" t="n">
-        <v>86357</v>
+        <v>56430</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7285,34 +7273,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477765</v>
+        <v>477524</v>
       </c>
       <c r="R58" t="n">
-        <v>7033404</v>
+        <v>7033330</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7345,6 +7337,11 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7371,7 +7368,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901548</v>
+        <v>111901551</v>
       </c>
       <c r="B59" t="n">
         <v>56430</v>
@@ -7415,10 +7412,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477476</v>
+        <v>477433</v>
       </c>
       <c r="R59" t="n">
-        <v>7033385</v>
+        <v>7033429</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7455,7 +7452,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7482,10 +7479,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901547</v>
+        <v>111901518</v>
       </c>
       <c r="B60" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7498,38 +7495,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477524</v>
+        <v>477674</v>
       </c>
       <c r="R60" t="n">
-        <v>7033330</v>
+        <v>7033500</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7562,11 +7555,6 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7593,10 +7581,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901545</v>
+        <v>111901587</v>
       </c>
       <c r="B61" t="n">
-        <v>56430</v>
+        <v>56575</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7609,38 +7597,46 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477667</v>
+        <v>477611</v>
       </c>
       <c r="R61" t="n">
-        <v>7033500</v>
+        <v>7033311</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7673,11 +7669,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7704,10 +7695,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901518</v>
+        <v>111901548</v>
       </c>
       <c r="B62" t="n">
-        <v>86357</v>
+        <v>56430</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7720,34 +7711,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477674</v>
+        <v>477476</v>
       </c>
       <c r="R62" t="n">
-        <v>7033500</v>
+        <v>7033385</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7780,6 +7775,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7806,10 +7806,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901549</v>
+        <v>111901618</v>
       </c>
       <c r="B63" t="n">
-        <v>56430</v>
+        <v>85197</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7822,38 +7822,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477464</v>
+        <v>477471</v>
       </c>
       <c r="R63" t="n">
-        <v>7033364</v>
+        <v>7033412</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7886,11 +7882,6 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7917,7 +7908,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901551</v>
+        <v>111901549</v>
       </c>
       <c r="B64" t="n">
         <v>56430</v>
@@ -7961,10 +7952,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477433</v>
+        <v>477464</v>
       </c>
       <c r="R64" t="n">
-        <v>7033429</v>
+        <v>7033364</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8001,7 +7992,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8028,7 +8019,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901550</v>
+        <v>111901544</v>
       </c>
       <c r="B65" t="n">
         <v>56430</v>
@@ -8072,10 +8063,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477473</v>
+        <v>477639</v>
       </c>
       <c r="R65" t="n">
-        <v>7033404</v>
+        <v>7033515</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8139,10 +8130,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901618</v>
+        <v>111901550</v>
       </c>
       <c r="B66" t="n">
-        <v>85183</v>
+        <v>56430</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8155,34 +8146,38 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477471</v>
+        <v>477473</v>
       </c>
       <c r="R66" t="n">
-        <v>7033412</v>
+        <v>7033404</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8215,6 +8210,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8241,7 +8241,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901544</v>
+        <v>111901545</v>
       </c>
       <c r="B67" t="n">
         <v>56430</v>
@@ -8285,10 +8285,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>477639</v>
+        <v>477667</v>
       </c>
       <c r="R67" t="n">
-        <v>7033515</v>
+        <v>7033500</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
